--- a/doc/work.xlsx
+++ b/doc/work.xlsx
@@ -509,7 +509,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +546,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -575,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -593,11 +599,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1044,59 +1052,59 @@
       <c r="F9" s="4"/>
     </row>
     <row r="27" spans="2:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="2:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="2:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1185,7 +1193,7 @@
   <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1202,17 +1210,17 @@
       </c>
       <c r="H1" s="6">
         <f>SUM(G:G)</f>
-        <v>6.1875</v>
+        <v>6.1770833333333321</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>44197</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="7">
         <f>D2-C2-E2-F2</f>
         <v>0</v>
@@ -1222,39 +1230,39 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>44198</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G32" si="0">D3-C3-E3-F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>44199</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>44200</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1268,18 +1276,18 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D6" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E6" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f t="shared" ref="F3:F32" si="1">IF(D6&gt;$F$1,"00:30","00:00")</f>
+        <f t="shared" ref="F6:F30" si="1">IF(D6&gt;$F$1,"00:30","00:00")</f>
         <v>00:00</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
@@ -1290,7 +1298,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D7" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E7" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1301,7 +1309,7 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
@@ -1312,7 +1320,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D8" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1323,7 +1331,7 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -1335,7 +1343,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D9" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E9" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1346,44 +1354,44 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>44205</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>44206</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>44207</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1397,7 +1405,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D13" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E13" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1408,7 +1416,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
@@ -1419,7 +1427,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D14" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E14" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1430,7 +1438,7 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
@@ -1441,7 +1449,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D15" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E15" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1452,7 +1460,7 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
@@ -1463,7 +1471,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D16" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E16" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1474,30 +1482,30 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="13">
+      <c r="B17" s="18">
         <v>44212</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+      <c r="B18" s="18">
         <v>44213</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1614,26 +1622,26 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+      <c r="B24" s="18">
         <v>44219</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+      <c r="B25" s="18">
         <v>44220</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1709,22 +1717,16 @@
       <c r="B29" s="13">
         <v>44224</v>
       </c>
-      <c r="C29" s="14">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E29" s="14">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>00:00</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
@@ -1750,26 +1752,26 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="13">
+      <c r="B31" s="18">
         <v>44226</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="11"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+      <c r="B32" s="18">
         <v>44227</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
